--- a/doc/epd-waveform.xlsx
+++ b/doc/epd-waveform.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25012FAE-F4BE-49F0-80B9-B33DC8E77090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915A4B2E-F6F8-4B76-8A40-941BD54090F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="225" windowWidth="27750" windowHeight="9330" activeTab="2" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="126">
   <si>
     <t>LE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,12 +563,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -616,12 +622,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,7 +964,7 @@
       <selection activeCell="AD4" sqref="AD4:AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="16" width="1.875" customWidth="1"/>
@@ -965,7 +974,7 @@
     <col min="30" max="35" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:35">
+    <row r="4" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -988,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:35">
+    <row r="5" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:35">
+    <row r="6" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:35">
+    <row r="7" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:35">
+    <row r="8" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:35">
+    <row r="9" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:35">
+    <row r="10" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:35">
+    <row r="11" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:35">
+    <row r="12" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1145,17 +1154,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:35">
+    <row r="16" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1184,7 @@
       <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="10" width="1.875" customWidth="1"/>
     <col min="11" max="11" width="2.625" style="1" customWidth="1"/>
@@ -1191,7 +1200,7 @@
     <col min="47" max="52" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:52">
+    <row r="3" spans="2:52" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:52">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:52">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:52">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:52">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:52">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:52">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:52">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:52">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1416,47 +1425,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:52">
-      <c r="Z13" s="2" t="s">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="Z13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="4"/>
-    </row>
-    <row r="14" spans="2:52">
-      <c r="Z14" s="2" t="s">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="5"/>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="Z14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1470,13 +1479,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F29932-40D1-440F-BC69-A370D4ACE798}">
-  <dimension ref="B3:BN11"/>
+  <dimension ref="B3:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+      <selection activeCell="S8" sqref="S8:Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="16" width="1.875" customWidth="1"/>
     <col min="18" max="19" width="1.875" customWidth="1"/>
@@ -1486,10 +1495,10 @@
     <col min="35" max="35" width="2.625" customWidth="1"/>
     <col min="36" max="40" width="1.875" customWidth="1"/>
     <col min="42" max="51" width="1.875" customWidth="1"/>
-    <col min="53" max="66" width="1.875" customWidth="1"/>
+    <col min="53" max="67" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:66">
+    <row r="3" spans="2:67" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>121</v>
       </c>
@@ -1515,7 +1524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:66">
+    <row r="4" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:66">
+    <row r="5" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1546,14 +1555,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:66">
+    <row r="6" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R6" t="s">
@@ -1565,17 +1574,19 @@
       <c r="AH6" t="s">
         <v>10</v>
       </c>
-      <c r="BC6" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:66">
+      <c r="BC6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1636,20 +1647,24 @@
       <c r="AY7" t="s">
         <v>10</v>
       </c>
-      <c r="BF7" t="s">
-        <v>11</v>
-      </c>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
       <c r="BG7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:66">
+        <v>11</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1662,8 +1677,12 @@
       <c r="Y8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:66">
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+    </row>
+    <row r="9" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1673,11 +1692,15 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="BN9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:66">
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BO9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1693,8 +1716,12 @@
       <c r="N10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:66">
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+    </row>
+    <row r="11" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1728,16 +1755,21 @@
       <c r="AN11" t="s">
         <v>11</v>
       </c>
-      <c r="BD11" t="s">
-        <v>10</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>10</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>11</v>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF11" s="6"/>
+      <c r="BK11" t="s">
+        <v>10</v>
       </c>
       <c r="BM11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1756,14 +1788,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1800,7 +1832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1823,7 +1855,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1846,7 +1878,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1869,7 +1901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1892,7 +1924,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1915,7 +1947,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1938,7 +1970,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1961,7 +1993,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1984,7 +2016,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2007,7 +2039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2030,7 +2062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
@@ -2053,7 +2085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2076,7 +2108,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
@@ -2099,7 +2131,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
@@ -2122,7 +2154,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>

--- a/doc/epd-waveform.xlsx
+++ b/doc/epd-waveform.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915A4B2E-F6F8-4B76-8A40-941BD54090F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E886B-169D-45AE-95CF-1E41436F98CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
+    <workbookView xWindow="34110" yWindow="420" windowWidth="22335" windowHeight="15120" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
   <si>
     <t>LE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,14 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a scan line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat lines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>init</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +523,34 @@
   </si>
   <si>
     <t>output_row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty-row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat lines: 600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a scan line: 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,8 +582,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,7 +613,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,8 +700,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,7 +1053,7 @@
       <selection activeCell="AD4" sqref="AD4:AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="16" width="1.875" customWidth="1"/>
@@ -974,7 +1063,7 @@
     <col min="30" max="35" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:35">
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -997,7 +1086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:35">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1011,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:35">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:35">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:35">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:35">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:35">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:35">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:35">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1154,17 +1243,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:35">
       <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -1178,13 +1267,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4FF9E5-711D-4DBE-A666-B134409C182B}">
-  <dimension ref="B3:AZ14"/>
+  <dimension ref="B3:BB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="10" width="1.875" customWidth="1"/>
     <col min="11" max="11" width="2.625" style="1" customWidth="1"/>
@@ -1197,10 +1289,12 @@
     <col min="37" max="37" width="2.625" style="1" customWidth="1"/>
     <col min="38" max="39" width="1.875" customWidth="1"/>
     <col min="41" max="45" width="1.875" customWidth="1"/>
-    <col min="47" max="52" width="1.875" customWidth="1"/>
+    <col min="46" max="46" width="3.5" customWidth="1"/>
+    <col min="47" max="47" width="1.875" customWidth="1"/>
+    <col min="49" max="54" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -1213,11 +1307,11 @@
       <c r="AO3" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AW3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1254,11 +1348,11 @@
       <c r="AP4" t="s">
         <v>117</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AY4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:54">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1271,11 +1365,11 @@
       <c r="AS5" t="s">
         <v>10</v>
       </c>
-      <c r="AW5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="AY5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:54">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1291,11 +1385,11 @@
       <c r="L6" t="s">
         <v>11</v>
       </c>
-      <c r="AU6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="AW6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:54">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1332,11 +1426,11 @@
       <c r="AP7" t="s">
         <v>10</v>
       </c>
-      <c r="AW7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="AY7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:54">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1349,22 +1443,22 @@
       <c r="AC8" t="s">
         <v>11</v>
       </c>
-      <c r="AY8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="BA8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:54">
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="AV9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="AX9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:54">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1377,11 +1471,11 @@
       <c r="R10" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="BB10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:54">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1421,31 +1515,42 @@
       <c r="AQ11" t="s">
         <v>10</v>
       </c>
-      <c r="AX11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="Z13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="5"/>
-    </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="AZ11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54">
+      <c r="AU12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:54">
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="7"/>
+    </row>
+    <row r="14" spans="2:54">
       <c r="Z14" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
@@ -1465,12 +1570,14 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
-      <c r="AS14" s="5"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Z13:AM13"/>
-    <mergeCell ref="Z14:AS14"/>
+    <mergeCell ref="Z14:AU14"/>
+    <mergeCell ref="AF13:AS13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,28 +1586,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F29932-40D1-440F-BC69-A370D4ACE798}">
-  <dimension ref="B3:BO11"/>
+  <dimension ref="B3:BO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8:Y8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="16" width="1.875" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
     <col min="18" max="19" width="1.875" customWidth="1"/>
+    <col min="20" max="20" width="5.5" customWidth="1"/>
     <col min="21" max="23" width="1.875" customWidth="1"/>
+    <col min="24" max="24" width="6.125" customWidth="1"/>
     <col min="25" max="29" width="1.875" customWidth="1"/>
+    <col min="30" max="30" width="5.625" customWidth="1"/>
     <col min="31" max="34" width="1.875" customWidth="1"/>
     <col min="35" max="35" width="2.625" customWidth="1"/>
     <col min="36" max="40" width="1.875" customWidth="1"/>
+    <col min="41" max="41" width="5.875" customWidth="1"/>
     <col min="42" max="51" width="1.875" customWidth="1"/>
-    <col min="53" max="67" width="1.875" customWidth="1"/>
+    <col min="52" max="52" width="6" customWidth="1"/>
+    <col min="53" max="53" width="1.875" customWidth="1"/>
+    <col min="54" max="54" width="10.125" style="1" customWidth="1"/>
+    <col min="55" max="67" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:67">
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1509,26 +1630,26 @@
         <v>16</v>
       </c>
       <c r="U3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP3" t="s">
         <v>122</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>124</v>
       </c>
       <c r="BA3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:67">
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="U4" t="s">
@@ -1537,29 +1658,53 @@
       <c r="BA4" t="s">
         <v>117</v>
       </c>
-      <c r="BB4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="BB4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+    </row>
+    <row r="5" spans="2:67">
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+    </row>
+    <row r="6" spans="2:67">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1568,29 +1713,45 @@
       <c r="R6" t="s">
         <v>11</v>
       </c>
-      <c r="AE6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="6"/>
-      <c r="BF6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="AE6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="BC6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BL6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="V7" t="s">
@@ -1599,171 +1760,227 @@
       <c r="W7" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AJ7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ7" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="S8" t="s">
         <v>10</v>
       </c>
-      <c r="Y8" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-    </row>
-    <row r="9" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="Y8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+    </row>
+    <row r="9" spans="2:67">
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
       <c r="BO9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:67">
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-    </row>
-    <row r="11" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+    </row>
+    <row r="11" spans="2:67">
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC11" s="6"/>
-      <c r="BD11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF11" s="6"/>
-      <c r="BK11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="12"/>
+      <c r="AN11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="BM11" t="s">
@@ -1773,7 +1990,85 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="2:67">
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="2:67">
+      <c r="R13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="5"/>
+    </row>
+    <row r="14" spans="2:67">
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67">
+      <c r="D15" s="11"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67">
+      <c r="D16" s="9"/>
+      <c r="E16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="13"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="12"/>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="R13:AY13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1788,14 +2083,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +2104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1832,7 +2127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1855,7 +2150,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1878,7 +2173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1901,7 +2196,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1924,7 +2219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1947,7 +2242,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1970,7 +2265,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1993,7 +2288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2016,7 +2311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2039,7 +2334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2062,7 +2357,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8">
       <c r="B15">
         <v>11</v>
       </c>
@@ -2085,7 +2380,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2108,7 +2403,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>13</v>
       </c>
@@ -2131,7 +2426,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>14</v>
       </c>
@@ -2154,7 +2449,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>15</v>
       </c>

--- a/doc/epd-waveform.xlsx
+++ b/doc/epd-waveform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E886B-169D-45AE-95CF-1E41436F98CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60450C-9D6A-4F38-A214-848A4F5DCB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34110" yWindow="420" windowWidth="22335" windowHeight="15120" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
+    <workbookView xWindow="4785" yWindow="630" windowWidth="23385" windowHeight="9225" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,18 @@
     <sheet name="PaperBack" sheetId="5" r:id="rId3"/>
     <sheet name="LUT" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -558,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,13 +594,6 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,8 +604,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +648,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +711,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,33 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,10 +1298,10 @@
   <dimension ref="B3:BB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BB10" sqref="BB10"/>
+      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1525,54 +1553,54 @@
       </c>
     </row>
     <row r="13" spans="2:54">
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="3" t="s">
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="7"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="18"/>
     </row>
     <row r="14" spans="2:54">
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="5"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1581,6 +1609,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1589,10 +1618,10 @@
   <dimension ref="B3:BO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="S8:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1661,14 +1690,14 @@
       <c r="BB4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="14"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
     </row>
     <row r="5" spans="2:67">
       <c r="B5" t="s">
@@ -1677,28 +1706,28 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AP5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14"/>
+      <c r="AP5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
     </row>
     <row r="6" spans="2:67">
       <c r="B6" t="s">
@@ -1713,36 +1742,36 @@
       <c r="R6" t="s">
         <v>11</v>
       </c>
-      <c r="AE6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="BC6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG6" s="14"/>
-      <c r="BH6" s="14"/>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="14"/>
+      <c r="AE6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="BC6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
       <c r="BL6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1760,75 +1789,75 @@
       <c r="W7" t="s">
         <v>10</v>
       </c>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AJ7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ7" s="14" t="s">
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AJ7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1845,25 +1874,25 @@
       <c r="S8" t="s">
         <v>10</v>
       </c>
-      <c r="Y8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
-      <c r="BF8" s="15"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
+      <c r="Y8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
     </row>
     <row r="9" spans="2:67">
       <c r="B9" t="s">
@@ -1872,21 +1901,21 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
       <c r="BO9" t="s">
         <v>10</v>
       </c>
@@ -1901,33 +1930,33 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="14"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="14"/>
+      <c r="H10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
     </row>
     <row r="11" spans="2:67">
       <c r="B11" t="s">
@@ -1936,50 +1965,50 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH11" s="12"/>
-      <c r="AN11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF11" s="15"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="6"/>
+      <c r="AN11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
       <c r="BK11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1991,49 +2020,49 @@
       </c>
     </row>
     <row r="12" spans="2:67">
-      <c r="U12" s="3">
+      <c r="U12" s="14">
         <v>200</v>
       </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="5"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="16"/>
     </row>
     <row r="13" spans="2:67">
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="5"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="16"/>
     </row>
     <row r="14" spans="2:67">
       <c r="E14" t="s">
@@ -2041,25 +2070,25 @@
       </c>
     </row>
     <row r="15" spans="2:67">
-      <c r="D15" s="11"/>
+      <c r="D15" s="5"/>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67">
-      <c r="D16" s="9"/>
+      <c r="D16" s="3"/>
       <c r="E16">
         <v>500</v>
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="13"/>
+      <c r="D17" s="7"/>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="12"/>
+      <c r="D18" s="6"/>
       <c r="E18">
         <v>2</v>
       </c>
@@ -2080,7 +2109,7 @@
   <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/doc/epd-waveform.xlsx
+++ b/doc/epd-waveform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60450C-9D6A-4F38-A214-848A4F5DCB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E921D7D-8C07-45BA-A2FC-DC605A4B57E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="630" windowWidth="23385" windowHeight="9225" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
+    <workbookView xWindow="19755" yWindow="1050" windowWidth="21600" windowHeight="14100" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
   <si>
     <t>LE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LUT2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,47 +498,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hscan_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latch_row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty-row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat lines: 600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hscan_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latch_row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty-row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active_low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600 times</t>
+    <t>PG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,15 +554,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat lines: 600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a scan line: 100</t>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel-pack #0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 ~ 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a scan line: 100 bytes (800 pixels)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vscan_s : page_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hscan_s: line_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vscan_e: line_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,8 +655,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,8 +713,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -697,13 +765,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,16 +917,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -755,10 +965,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,317 +1628,828 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4FF9E5-711D-4DBE-A666-B134409C182B}">
-  <dimension ref="B3:BB14"/>
+  <dimension ref="B3:BA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN10" sqref="AN10"/>
+      <selection pane="bottomRight" activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="10" width="1.875" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1.875" customWidth="1"/>
-    <col min="14" max="24" width="1.875" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="2" customWidth="1"/>
+    <col min="15" max="15" width="2.75" customWidth="1"/>
+    <col min="16" max="17" width="1.875" customWidth="1"/>
+    <col min="18" max="18" width="2.375" customWidth="1"/>
+    <col min="19" max="19" width="1.875" customWidth="1"/>
+    <col min="20" max="20" width="2.25" customWidth="1"/>
+    <col min="21" max="21" width="1.875" customWidth="1"/>
+    <col min="22" max="22" width="2.25" customWidth="1"/>
+    <col min="23" max="24" width="1.875" customWidth="1"/>
+    <col min="25" max="25" width="5.75" customWidth="1"/>
     <col min="26" max="30" width="1.875" customWidth="1"/>
-    <col min="31" max="31" width="4" customWidth="1"/>
+    <col min="31" max="31" width="2" customWidth="1"/>
     <col min="32" max="33" width="1.875" customWidth="1"/>
-    <col min="35" max="36" width="1.875" customWidth="1"/>
-    <col min="37" max="37" width="2.625" style="1" customWidth="1"/>
-    <col min="38" max="39" width="1.875" customWidth="1"/>
-    <col min="41" max="45" width="1.875" customWidth="1"/>
-    <col min="46" max="46" width="3.5" customWidth="1"/>
-    <col min="47" max="47" width="1.875" customWidth="1"/>
-    <col min="49" max="54" width="1.875" customWidth="1"/>
+    <col min="34" max="34" width="2.375" customWidth="1"/>
+    <col min="35" max="38" width="1.875" customWidth="1"/>
+    <col min="39" max="39" width="2.75" customWidth="1"/>
+    <col min="40" max="44" width="1.875" customWidth="1"/>
+    <col min="45" max="45" width="3.5" customWidth="1"/>
+    <col min="46" max="46" width="1.875" customWidth="1"/>
+    <col min="48" max="53" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:54">
-      <c r="C3" t="s">
+    <row r="3" spans="2:53">
+      <c r="D3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:54">
-      <c r="B4" t="s">
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+    </row>
+    <row r="4" spans="2:53" ht="10.5" customHeight="1"/>
+    <row r="5" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="2:54">
-      <c r="B5" t="s">
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+    </row>
+    <row r="6" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
+      <c r="K6" s="48"/>
+      <c r="M6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+    </row>
+    <row r="7" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:54">
-      <c r="B6" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+    </row>
+    <row r="8" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
+      <c r="K8" s="48"/>
+      <c r="M8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+    </row>
+    <row r="9" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:54">
-      <c r="B7" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+    </row>
+    <row r="10" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
+      <c r="K10" s="48"/>
+      <c r="M10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+    </row>
+    <row r="11" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:54">
-      <c r="B8" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+    </row>
+    <row r="12" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
+      <c r="K12" s="48"/>
+      <c r="M12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+    </row>
+    <row r="13" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:54">
-      <c r="B9" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="14"/>
+    </row>
+    <row r="14" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
+      <c r="K14" s="48"/>
+      <c r="M14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+    </row>
+    <row r="15" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:54">
-      <c r="B10" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+    </row>
+    <row r="16" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
+      <c r="K16" s="48"/>
+      <c r="M16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+    </row>
+    <row r="17" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:54">
-      <c r="B11" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="17"/>
+    </row>
+    <row r="18" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
+      <c r="K18" s="48"/>
+      <c r="M18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="44"/>
+      <c r="AQ18" s="44"/>
+    </row>
+    <row r="19" spans="2:53" ht="17.25" thickBot="1">
+      <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" t="s">
-        <v>11</v>
-      </c>
-      <c r="W11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:54">
-      <c r="AU12" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+    </row>
+    <row r="21" spans="2:53" ht="17.25" thickBot="1">
+      <c r="Z21" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+    </row>
+    <row r="22" spans="2:53">
+      <c r="M22" s="22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="2:54">
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="18"/>
-    </row>
-    <row r="14" spans="2:54">
-      <c r="Z14" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="16"/>
+      <c r="N22" s="22">
+        <v>7</v>
+      </c>
+      <c r="O22" s="22">
+        <v>10</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>8</v>
+      </c>
+      <c r="R22" s="22">
+        <v>10</v>
+      </c>
+      <c r="S22" s="22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="22">
+        <v>18</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="22">
+        <v>18</v>
+      </c>
+      <c r="W22" s="22">
+        <v>0</v>
+      </c>
+      <c r="X22" s="22"/>
+      <c r="Z22" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+    </row>
+    <row r="23" spans="2:53">
+      <c r="Z23" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="Z14:AU14"/>
-    <mergeCell ref="AF13:AS13"/>
+  <mergeCells count="5">
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="Z22:AL22"/>
+    <mergeCell ref="Z21:AG21"/>
+    <mergeCell ref="AI21:AL21"/>
+    <mergeCell ref="Z23:AR23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1621,7 +2465,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="S8:Y8"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1650,7 +2494,7 @@
   <sheetData>
     <row r="3" spans="2:67">
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1659,16 +2503,16 @@
         <v>16</v>
       </c>
       <c r="U3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE3" t="s">
         <v>120</v>
       </c>
-      <c r="Y3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>123</v>
-      </c>
       <c r="AP3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="BA3" t="s">
         <v>19</v>
@@ -1679,16 +2523,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U4" t="s">
         <v>18</v>
       </c>
       <c r="BA4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
@@ -1866,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -1925,15 +2769,15 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
         <v>10</v>
@@ -1965,8 +2809,8 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1983,7 +2827,7 @@
       <c r="O11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AE11" s="6"/>
@@ -1994,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="AH11" s="6"/>
-      <c r="AN11" s="13" t="s">
+      <c r="AN11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="BC11" s="9"/>
@@ -2020,53 +2864,53 @@
       </c>
     </row>
     <row r="12" spans="2:67">
-      <c r="U12" s="14">
+      <c r="U12" s="23">
         <v>200</v>
       </c>
-      <c r="V12" s="15"/>
-      <c r="W12" s="16"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
     </row>
     <row r="13" spans="2:67">
-      <c r="R13" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="16"/>
+      <c r="R13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="25"/>
     </row>
     <row r="14" spans="2:67">
       <c r="E14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:67">
@@ -2124,13 +2968,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -2138,22 +2982,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2161,22 +3005,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2184,22 +3028,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -2207,22 +3051,22 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -2230,22 +3074,22 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -2253,22 +3097,22 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -2276,22 +3120,22 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -2299,22 +3143,22 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -2322,22 +3166,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -2345,22 +3189,22 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -2368,22 +3212,22 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -2391,22 +3235,22 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -2414,22 +3258,22 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -2437,22 +3281,22 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2460,22 +3304,22 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2483,22 +3327,22 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/doc/epd-waveform.xlsx
+++ b/doc/epd-waveform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E921D7D-8C07-45BA-A2FC-DC605A4B57E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA01D3-C754-45CE-9BD0-3B42A15FD6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19755" yWindow="1050" windowWidth="21600" windowHeight="14100" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
+    <workbookView xWindow="31620" yWindow="720" windowWidth="24180" windowHeight="14100" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>LE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +595,34 @@
   </si>
   <si>
     <t>vscan_e: line_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAKEUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWRUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,9 +698,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -726,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -880,13 +910,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,142 +997,163 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,196 +1690,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4FF9E5-711D-4DBE-A666-B134409C182B}">
-  <dimension ref="B3:BA23"/>
+  <dimension ref="B3:BT29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN22" sqref="AN22"/>
+      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="10" width="1.875" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.875" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="15" width="2.75" customWidth="1"/>
-    <col min="16" max="17" width="1.875" customWidth="1"/>
-    <col min="18" max="18" width="2.375" customWidth="1"/>
-    <col min="19" max="19" width="1.875" customWidth="1"/>
-    <col min="20" max="20" width="2.25" customWidth="1"/>
-    <col min="21" max="21" width="1.875" customWidth="1"/>
-    <col min="22" max="22" width="2.25" customWidth="1"/>
-    <col min="23" max="24" width="1.875" customWidth="1"/>
-    <col min="25" max="25" width="5.75" customWidth="1"/>
-    <col min="26" max="30" width="1.875" customWidth="1"/>
-    <col min="31" max="31" width="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="63"/>
+    <col min="3" max="17" width="1.875" customWidth="1"/>
+    <col min="18" max="18" width="5.625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="1.875" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
+    <col min="23" max="23" width="2" customWidth="1"/>
+    <col min="24" max="24" width="2.75" customWidth="1"/>
+    <col min="25" max="26" width="1.875" customWidth="1"/>
+    <col min="27" max="27" width="2.375" customWidth="1"/>
+    <col min="28" max="28" width="1.875" customWidth="1"/>
+    <col min="29" max="29" width="2.25" customWidth="1"/>
+    <col min="30" max="30" width="1.875" customWidth="1"/>
+    <col min="31" max="31" width="2.25" customWidth="1"/>
     <col min="32" max="33" width="1.875" customWidth="1"/>
-    <col min="34" max="34" width="2.375" customWidth="1"/>
-    <col min="35" max="38" width="1.875" customWidth="1"/>
-    <col min="39" max="39" width="2.75" customWidth="1"/>
-    <col min="40" max="44" width="1.875" customWidth="1"/>
-    <col min="45" max="45" width="3.5" customWidth="1"/>
-    <col min="46" max="46" width="1.875" customWidth="1"/>
-    <col min="48" max="53" width="1.875" customWidth="1"/>
+    <col min="34" max="34" width="5.75" customWidth="1"/>
+    <col min="35" max="39" width="1.875" customWidth="1"/>
+    <col min="40" max="40" width="2" customWidth="1"/>
+    <col min="41" max="42" width="1.875" customWidth="1"/>
+    <col min="43" max="43" width="2.375" customWidth="1"/>
+    <col min="44" max="47" width="1.875" customWidth="1"/>
+    <col min="48" max="48" width="2.375" customWidth="1"/>
+    <col min="49" max="52" width="1.875" customWidth="1"/>
+    <col min="53" max="53" width="2.75" customWidth="1"/>
+    <col min="54" max="58" width="1.875" customWidth="1"/>
+    <col min="59" max="59" width="3.5" customWidth="1"/>
+    <col min="60" max="60" width="1.875" customWidth="1"/>
+    <col min="62" max="72" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:53">
-      <c r="D3" s="38" t="s">
+    <row r="3" spans="2:72" s="32" customFormat="1" ht="12">
+      <c r="B3" s="36"/>
+      <c r="D3" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="43" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38" t="s">
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="W3" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38" t="s">
+      <c r="AI3" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38" t="s">
+      <c r="BD3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38" t="s">
+      <c r="BJ3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-    </row>
-    <row r="4" spans="2:53" ht="10.5" customHeight="1"/>
-    <row r="5" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="4" spans="2:72" ht="10.5" customHeight="1"/>
+    <row r="5" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="56" t="s">
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="56" t="s">
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW5" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56" t="s">
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="31" t="s">
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-    </row>
-    <row r="6" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
-      <c r="K6" s="48"/>
-      <c r="M6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-    </row>
-    <row r="7" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B7" s="13" t="s">
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="25"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="25"/>
+      <c r="BK5" s="25"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+    </row>
+    <row r="6" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+      <c r="R6" s="38"/>
+      <c r="V6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+    </row>
+    <row r="7" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B7" s="64" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="15"/>
@@ -1827,73 +1894,96 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="19"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
       <c r="BA7" s="14"/>
-    </row>
-    <row r="8" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
-      <c r="K8" s="48"/>
-      <c r="M8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-    </row>
-    <row r="9" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B9" s="13" t="s">
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="19"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+    </row>
+    <row r="8" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+      <c r="R8" s="38"/>
+      <c r="V8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+    </row>
+    <row r="9" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B9" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="13"/>
@@ -1904,74 +1994,97 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
       <c r="AH9" s="16"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-    </row>
-    <row r="10" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
-      <c r="K10" s="48"/>
-      <c r="M10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-    </row>
-    <row r="11" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B11" s="13" t="s">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+    </row>
+    <row r="10" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+      <c r="R10" s="38"/>
+      <c r="V10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+    </row>
+    <row r="11" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B11" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="13"/>
@@ -1982,474 +2095,856 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="60"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
       <c r="AH11" s="14"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="49"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="50"/>
       <c r="BA11" s="14"/>
-    </row>
-    <row r="12" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
-      <c r="K12" s="48"/>
-      <c r="M12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-    </row>
-    <row r="13" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B13" s="13" t="s">
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="19"/>
+      <c r="BE11" s="19"/>
+      <c r="BF11" s="19"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="19"/>
+      <c r="BM11" s="14"/>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BP11" s="14"/>
+      <c r="BQ11" s="14"/>
+      <c r="BR11" s="14"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
+    </row>
+    <row r="12" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+      <c r="R12" s="38"/>
+      <c r="V12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+    </row>
+    <row r="13" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B13" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
       <c r="AH13" s="16"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="14"/>
-    </row>
-    <row r="14" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
-      <c r="K14" s="48"/>
-      <c r="M14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-    </row>
-    <row r="15" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B15" s="13" t="s">
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="17"/>
+      <c r="BO13" s="14"/>
+      <c r="BP13" s="14"/>
+      <c r="BQ13" s="14"/>
+      <c r="BR13" s="14"/>
+      <c r="BS13" s="14"/>
+      <c r="BT13" s="14"/>
+    </row>
+    <row r="14" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+      <c r="R14" s="38"/>
+      <c r="V14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+    </row>
+    <row r="15" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B15" s="64" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
       <c r="AH15" s="16"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-    </row>
-    <row r="16" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
-      <c r="K16" s="48"/>
-      <c r="M16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-    </row>
-    <row r="17" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B17" s="13" t="s">
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="29"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="17"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="14"/>
+      <c r="BP15" s="14"/>
+      <c r="BQ15" s="14"/>
+      <c r="BR15" s="14"/>
+      <c r="BS15" s="14"/>
+      <c r="BT15" s="14"/>
+    </row>
+    <row r="16" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+      <c r="R16" s="38"/>
+      <c r="V16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+    </row>
+    <row r="17" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B17" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
       <c r="AH17" s="16"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="16"/>
-      <c r="BA17" s="17"/>
-    </row>
-    <row r="18" spans="2:53" ht="10.5" customHeight="1" thickBot="1">
-      <c r="K18" s="48"/>
-      <c r="M18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-    </row>
-    <row r="19" spans="2:53" ht="17.25" thickBot="1">
-      <c r="B19" s="13" t="s">
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+      <c r="AZ17" s="48"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="29"/>
+      <c r="BC17" s="29"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="17"/>
+      <c r="BP17" s="14"/>
+      <c r="BQ17" s="14"/>
+      <c r="BR17" s="14"/>
+      <c r="BS17" s="14"/>
+      <c r="BT17" s="14"/>
+    </row>
+    <row r="18" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+      <c r="R18" s="38"/>
+      <c r="V18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+    </row>
+    <row r="19" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B19" s="64" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="39"/>
       <c r="AH19" s="16"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-    </row>
-    <row r="21" spans="2:53" ht="17.25" thickBot="1">
-      <c r="Z21" s="61" t="s">
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="AZ19" s="48"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="19"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="14"/>
+      <c r="BP19" s="14"/>
+      <c r="BQ19" s="14"/>
+      <c r="BR19" s="14"/>
+      <c r="BS19" s="14"/>
+      <c r="BT19" s="14"/>
+    </row>
+    <row r="21" spans="2:72" ht="17.25" thickBot="1">
+      <c r="AI21" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="62" t="s">
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="69"/>
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="64"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="67" t="s">
+      <c r="AS21" s="72"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="72"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="73"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="22"/>
-      <c r="AQ21" s="22"/>
-      <c r="AR21" s="22"/>
-      <c r="AS21" s="22"/>
-      <c r="AT21" s="22"/>
-    </row>
-    <row r="22" spans="2:53">
-      <c r="M22" s="22" t="s">
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+    </row>
+    <row r="22" spans="2:72" s="22" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B22" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="22">
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="67"/>
+      <c r="W22" s="22">
         <v>7</v>
       </c>
-      <c r="O22" s="22">
-        <v>10</v>
-      </c>
-      <c r="P22" s="22">
+      <c r="X22" s="22">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="22">
         <v>0</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Z22" s="22">
         <v>8</v>
       </c>
-      <c r="R22" s="22">
-        <v>10</v>
-      </c>
-      <c r="S22" s="22">
+      <c r="AA22" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="22">
         <v>0</v>
       </c>
-      <c r="T22" s="22">
+      <c r="AC22" s="22">
         <v>18</v>
       </c>
-      <c r="U22" s="22">
+      <c r="AD22" s="22">
         <v>0</v>
       </c>
-      <c r="V22" s="22">
+      <c r="AE22" s="22">
         <v>18</v>
       </c>
-      <c r="W22" s="22">
+      <c r="AF22" s="22">
         <v>0</v>
       </c>
-      <c r="X22" s="22"/>
-      <c r="Z22" s="42" t="s">
+      <c r="AI22" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="46"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="22"/>
-      <c r="AT22" s="22"/>
-    </row>
-    <row r="23" spans="2:53">
-      <c r="Z23" s="42" t="s">
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="58"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
+      <c r="AX22" s="58"/>
+      <c r="AY22" s="58"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="33"/>
+      <c r="BB22" s="34"/>
+      <c r="BC22" s="34"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="35"/>
+      <c r="BQ22" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:72">
+      <c r="AI23" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="66"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+      <c r="AU23" s="60"/>
+      <c r="AV23" s="60"/>
+      <c r="AW23" s="60"/>
+      <c r="AX23" s="60"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="60"/>
+      <c r="BA23" s="60"/>
+      <c r="BB23" s="60"/>
+      <c r="BC23" s="60"/>
+      <c r="BD23" s="60"/>
+      <c r="BE23" s="60"/>
+      <c r="BF23" s="60"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="52"/>
+    </row>
+    <row r="24" spans="2:72" ht="17.25" thickBot="1">
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="68"/>
+      <c r="AN24" s="68"/>
+      <c r="AO24" s="68"/>
+      <c r="AP24" s="68"/>
+      <c r="AQ24" s="68"/>
+      <c r="AR24" s="68"/>
+      <c r="AS24" s="68"/>
+      <c r="AT24" s="68"/>
+      <c r="AU24" s="68"/>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="68"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="68"/>
+      <c r="AZ24" s="68"/>
+      <c r="BA24" s="68"/>
+      <c r="BB24" s="68"/>
+      <c r="BC24" s="68"/>
+      <c r="BD24" s="68"/>
+      <c r="BE24" s="68"/>
+      <c r="BF24" s="68"/>
+      <c r="BG24" s="52"/>
+      <c r="BH24" s="52"/>
+    </row>
+    <row r="25" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B25" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="16"/>
+      <c r="BH25" s="16"/>
+      <c r="BI25" s="16"/>
+      <c r="BJ25" s="16"/>
+      <c r="BK25" s="16"/>
+      <c r="BL25" s="16"/>
+      <c r="BM25" s="16"/>
+      <c r="BN25" s="16"/>
+      <c r="BO25" s="16"/>
+      <c r="BP25" s="16"/>
+      <c r="BQ25" s="16"/>
+      <c r="BR25" s="16"/>
+      <c r="BS25" s="17"/>
+      <c r="BT25" s="14"/>
+    </row>
+    <row r="26" spans="2:72" ht="9.75" customHeight="1" thickBot="1"/>
+    <row r="27" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B27" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="16"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="16"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="16"/>
+      <c r="BE27" s="16"/>
+      <c r="BF27" s="16"/>
+      <c r="BG27" s="16"/>
+      <c r="BH27" s="16"/>
+      <c r="BI27" s="16"/>
+      <c r="BJ27" s="16"/>
+      <c r="BK27" s="16"/>
+      <c r="BL27" s="16"/>
+      <c r="BM27" s="16"/>
+      <c r="BN27" s="16"/>
+      <c r="BO27" s="16"/>
+      <c r="BP27" s="16"/>
+      <c r="BQ27" s="16"/>
+      <c r="BR27" s="17"/>
+      <c r="BS27" s="14"/>
+      <c r="BT27" s="14"/>
+    </row>
+    <row r="28" spans="2:72" ht="9.75" customHeight="1" thickBot="1"/>
+    <row r="29" spans="2:72" ht="17.25" thickBot="1">
+      <c r="B29" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="16"/>
+      <c r="AX29" s="16"/>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
+      <c r="BC29" s="16"/>
+      <c r="BD29" s="16"/>
+      <c r="BE29" s="16"/>
+      <c r="BF29" s="16"/>
+      <c r="BG29" s="16"/>
+      <c r="BH29" s="16"/>
+      <c r="BI29" s="16"/>
+      <c r="BJ29" s="16"/>
+      <c r="BK29" s="16"/>
+      <c r="BL29" s="16"/>
+      <c r="BM29" s="16"/>
+      <c r="BN29" s="16"/>
+      <c r="BO29" s="16"/>
+      <c r="BP29" s="16"/>
+      <c r="BQ29" s="17"/>
+      <c r="BR29" s="14"/>
+      <c r="BS29" s="14"/>
+      <c r="BT29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="Z22:AL22"/>
-    <mergeCell ref="Z21:AG21"/>
-    <mergeCell ref="AI21:AL21"/>
-    <mergeCell ref="Z23:AR23"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AI22:AZ22"/>
+    <mergeCell ref="AI21:AP21"/>
+    <mergeCell ref="AI23:BF23"/>
+    <mergeCell ref="AR21:AZ21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2864,49 +3359,49 @@
       </c>
     </row>
     <row r="12" spans="2:67">
-      <c r="U12" s="23">
+      <c r="U12" s="61">
         <v>200</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="2:67">
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="25"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="62"/>
     </row>
     <row r="14" spans="2:67">
       <c r="E14" t="s">

--- a/doc/epd-waveform.xlsx
+++ b/doc/epd-waveform.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA01D3-C754-45CE-9BD0-3B42A15FD6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6367DBA7-FCCE-4250-82A6-CEF1D8D27ED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="720" windowWidth="24180" windowHeight="14100" activeTab="1" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{78C6B8FA-3C52-4DE7-A2E5-61054DED4470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="InkPlate" sheetId="4" r:id="rId2"/>
-    <sheet name="PaperBack" sheetId="5" r:id="rId3"/>
-    <sheet name="LUT" sheetId="3" r:id="rId4"/>
+    <sheet name="InkPlate-InkPlate" sheetId="6" r:id="rId2"/>
+    <sheet name="InkPlate" sheetId="4" r:id="rId3"/>
+    <sheet name="PaperBack" sheetId="5" r:id="rId4"/>
+    <sheet name="LUT" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="163">
   <si>
     <t>LE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,10 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WAKEUP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,15 +615,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>enable all rails</t>
+  </si>
+  <si>
+    <t>setup power up/down sequence &amp; vcom voltage</t>
+  </si>
+  <si>
+    <t>setup power up/down sequence &amp; vcom voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power-on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable all rails &amp; wait power-good</t>
+  </si>
+  <si>
+    <t>v-scan start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h-scan start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel #0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan-line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h-scan end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latch-row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output-row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-scan end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power-off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable all rails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,8 +766,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,8 +832,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -921,13 +1046,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1253,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1108,53 +1289,221 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,7 +1825,7 @@
       <selection activeCell="AD4" sqref="AD4:AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="16" width="1.875" customWidth="1"/>
@@ -1486,7 +1835,7 @@
     <col min="30" max="35" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:35">
+    <row r="4" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -1509,7 +1858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:35">
+    <row r="5" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1523,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:35">
+    <row r="6" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:35">
+    <row r="7" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -1554,7 +1903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:35">
+    <row r="8" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -1577,7 +1926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:35">
+    <row r="9" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1594,7 +1943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:35">
+    <row r="10" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:35">
+    <row r="11" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:35">
+    <row r="12" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1666,17 +2015,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:35">
+    <row r="16" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -1689,25 +2038,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4FF9E5-711D-4DBE-A666-B134409C182B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B8EE0-0C00-4067-9ACA-D1317E9D9395}">
   <dimension ref="B3:BT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="63"/>
+    <col min="2" max="2" width="9" style="55"/>
     <col min="3" max="17" width="1.875" customWidth="1"/>
     <col min="18" max="18" width="5.625" style="1" customWidth="1"/>
     <col min="19" max="21" width="1.875" customWidth="1"/>
     <col min="22" max="22" width="5" customWidth="1"/>
     <col min="23" max="23" width="2" customWidth="1"/>
-    <col min="24" max="24" width="2.75" customWidth="1"/>
+    <col min="24" max="24" width="2.125" customWidth="1"/>
     <col min="25" max="26" width="1.875" customWidth="1"/>
     <col min="27" max="27" width="2.375" customWidth="1"/>
     <col min="28" max="28" width="1.875" customWidth="1"/>
@@ -1730,46 +2079,46 @@
     <col min="62" max="72" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:72" s="32" customFormat="1" ht="12">
+    <row r="3" spans="2:72" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B3" s="36"/>
       <c r="D3" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
       <c r="W3" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI3" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AI3" s="32" t="s">
+      <c r="BD3" s="32" t="s">
         <v>138</v>
-      </c>
-      <c r="BD3" s="32" t="s">
-        <v>139</v>
       </c>
       <c r="BJ3" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:72" ht="10.5" customHeight="1"/>
-    <row r="5" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B5" s="64" t="s">
+    <row r="4" spans="2:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="25"/>
@@ -1806,34 +2155,34 @@
       <c r="AH5" s="25"/>
       <c r="AI5" s="27"/>
       <c r="AJ5" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK5" s="27"/>
       <c r="AL5" s="27"/>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
       <c r="AO5" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AP5" s="46"/>
       <c r="AQ5" s="25"/>
       <c r="AR5" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS5" s="46"/>
       <c r="AT5" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AU5" s="46"/>
       <c r="AV5" s="46" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="AW5" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX5" s="46"/>
       <c r="AY5" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AZ5" s="46"/>
       <c r="BA5" s="25"/>
@@ -1859,7 +2208,7 @@
       <c r="BS5" s="14"/>
       <c r="BT5" s="14"/>
     </row>
-    <row r="6" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+    <row r="6" spans="2:72" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R6" s="38"/>
       <c r="V6" s="37"/>
       <c r="AI6" s="37"/>
@@ -1883,8 +2232,8 @@
       <c r="BD6" s="37"/>
       <c r="BE6" s="37"/>
     </row>
-    <row r="7" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B7" s="64" t="s">
+    <row r="7" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="15"/>
@@ -1958,7 +2307,7 @@
       <c r="BS7" s="14"/>
       <c r="BT7" s="14"/>
     </row>
-    <row r="8" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:72" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R8" s="38"/>
       <c r="V8" s="37"/>
       <c r="AI8" s="37"/>
@@ -1982,8 +2331,8 @@
       <c r="BD8" s="37"/>
       <c r="BE8" s="37"/>
     </row>
-    <row r="9" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="13"/>
@@ -2000,7 +2349,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="76"/>
       <c r="R9" s="21" t="s">
         <v>126</v>
       </c>
@@ -2059,7 +2408,7 @@
       <c r="BS9" s="14"/>
       <c r="BT9" s="14"/>
     </row>
-    <row r="10" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+    <row r="10" spans="2:72" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R10" s="38"/>
       <c r="V10" s="37"/>
       <c r="AI10" s="37"/>
@@ -2083,8 +2432,8 @@
       <c r="BD10" s="37"/>
       <c r="BE10" s="37"/>
     </row>
-    <row r="11" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B11" s="64" t="s">
+    <row r="11" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="56" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="13"/>
@@ -2132,7 +2481,7 @@
       <c r="AS11" s="50"/>
       <c r="AT11" s="49"/>
       <c r="AU11" s="50"/>
-      <c r="AV11" s="75"/>
+      <c r="AV11" s="61"/>
       <c r="AW11" s="49"/>
       <c r="AX11" s="50"/>
       <c r="AY11" s="49"/>
@@ -2158,7 +2507,7 @@
       <c r="BS11" s="14"/>
       <c r="BT11" s="14"/>
     </row>
-    <row r="12" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+    <row r="12" spans="2:72" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R12" s="38"/>
       <c r="V12" s="37"/>
       <c r="AI12" s="37"/>
@@ -2182,8 +2531,8 @@
       <c r="BD12" s="37"/>
       <c r="BE12" s="37"/>
     </row>
-    <row r="13" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B13" s="64" t="s">
+    <row r="13" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="13"/>
@@ -2257,7 +2606,7 @@
       <c r="BS13" s="14"/>
       <c r="BT13" s="14"/>
     </row>
-    <row r="14" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+    <row r="14" spans="2:72" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R14" s="38"/>
       <c r="V14" s="37"/>
       <c r="AI14" s="37"/>
@@ -2281,8 +2630,8 @@
       <c r="BD14" s="37"/>
       <c r="BE14" s="37"/>
     </row>
-    <row r="15" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B15" s="64" t="s">
+    <row r="15" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="13"/>
@@ -2356,7 +2705,7 @@
       <c r="BS15" s="14"/>
       <c r="BT15" s="14"/>
     </row>
-    <row r="16" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+    <row r="16" spans="2:72" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R16" s="38"/>
       <c r="V16" s="37"/>
       <c r="AI16" s="37"/>
@@ -2380,8 +2729,8 @@
       <c r="BD16" s="37"/>
       <c r="BE16" s="37"/>
     </row>
-    <row r="17" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B17" s="64" t="s">
+    <row r="17" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="13"/>
@@ -2455,7 +2804,7 @@
       <c r="BS17" s="14"/>
       <c r="BT17" s="14"/>
     </row>
-    <row r="18" spans="2:72" ht="10.5" customHeight="1" thickBot="1">
+    <row r="18" spans="2:72" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R18" s="38"/>
       <c r="V18" s="37"/>
       <c r="AI18" s="37"/>
@@ -2479,8 +2828,8 @@
       <c r="BD18" s="37"/>
       <c r="BE18" s="37"/>
     </row>
-    <row r="19" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B19" s="64" t="s">
+    <row r="19" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="13"/>
@@ -2515,10 +2864,10 @@
       <c r="AF19" s="41"/>
       <c r="AG19" s="39"/>
       <c r="AH19" s="16"/>
-      <c r="AI19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="56"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="63"/>
       <c r="AM19" s="29"/>
       <c r="AN19" s="29"/>
       <c r="AO19" s="48"/>
@@ -2554,32 +2903,32 @@
       <c r="BS19" s="14"/>
       <c r="BT19" s="14"/>
     </row>
-    <row r="21" spans="2:72" ht="17.25" thickBot="1">
-      <c r="AI21" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="70"/>
+    <row r="21" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AI21" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ21" s="67"/>
+      <c r="AK21" s="67"/>
+      <c r="AL21" s="67"/>
+      <c r="AM21" s="67"/>
+      <c r="AN21" s="67"/>
+      <c r="AO21" s="67"/>
+      <c r="AP21" s="68"/>
       <c r="AQ21" s="22"/>
-      <c r="AR21" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS21" s="72"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="74"/>
+      <c r="AR21" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="71"/>
+      <c r="AU21" s="71"/>
+      <c r="AV21" s="72"/>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="72"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="73"/>
       <c r="BA21" s="22"/>
       <c r="BB21" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BC21" s="54"/>
       <c r="BD21" s="22"/>
@@ -2588,14 +2937,14 @@
       <c r="BG21" s="22"/>
       <c r="BH21" s="22"/>
     </row>
-    <row r="22" spans="2:72" s="22" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B22" s="67" t="s">
-        <v>128</v>
+    <row r="22" spans="2:72" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="59" t="s">
+        <v>124</v>
       </c>
       <c r="G22" s="22">
-        <v>1</v>
-      </c>
-      <c r="R22" s="67"/>
+        <v>2</v>
+      </c>
+      <c r="R22" s="59"/>
       <c r="W22" s="22">
         <v>7</v>
       </c>
@@ -2626,26 +2975,26 @@
       <c r="AF22" s="22">
         <v>0</v>
       </c>
-      <c r="AI22" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="58"/>
-      <c r="AT22" s="58"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="58"/>
-      <c r="AX22" s="58"/>
-      <c r="AY22" s="58"/>
-      <c r="AZ22" s="59"/>
+      <c r="AI22" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="66"/>
       <c r="BA22" s="33"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34"/>
@@ -2656,72 +3005,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:72">
-      <c r="AI23" s="57" t="s">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="AI23" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="60"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="60"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="60"/>
-      <c r="AV23" s="60"/>
-      <c r="AW23" s="60"/>
-      <c r="AX23" s="60"/>
-      <c r="AY23" s="60"/>
-      <c r="AZ23" s="60"/>
-      <c r="BA23" s="60"/>
-      <c r="BB23" s="60"/>
-      <c r="BC23" s="60"/>
-      <c r="BD23" s="60"/>
-      <c r="BE23" s="60"/>
-      <c r="BF23" s="60"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="69"/>
+      <c r="AN23" s="69"/>
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="69"/>
+      <c r="AR23" s="69"/>
+      <c r="AS23" s="69"/>
+      <c r="AT23" s="69"/>
+      <c r="AU23" s="69"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="69"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
+      <c r="BC23" s="69"/>
+      <c r="BD23" s="69"/>
+      <c r="BE23" s="69"/>
+      <c r="BF23" s="69"/>
       <c r="BG23" s="51"/>
       <c r="BH23" s="52"/>
     </row>
-    <row r="24" spans="2:72" ht="17.25" thickBot="1">
+    <row r="24" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AI24" s="52"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="68"/>
-      <c r="AL24" s="68"/>
-      <c r="AM24" s="68"/>
-      <c r="AN24" s="68"/>
-      <c r="AO24" s="68"/>
-      <c r="AP24" s="68"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="68"/>
-      <c r="AS24" s="68"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
-      <c r="BC24" s="68"/>
-      <c r="BD24" s="68"/>
-      <c r="BE24" s="68"/>
-      <c r="BF24" s="68"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="60"/>
+      <c r="AS24" s="60"/>
+      <c r="AT24" s="60"/>
+      <c r="AU24" s="60"/>
+      <c r="AV24" s="60"/>
+      <c r="AW24" s="60"/>
+      <c r="AX24" s="60"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="60"/>
+      <c r="BA24" s="60"/>
+      <c r="BB24" s="60"/>
+      <c r="BC24" s="60"/>
+      <c r="BD24" s="60"/>
+      <c r="BE24" s="60"/>
+      <c r="BF24" s="60"/>
       <c r="BG24" s="52"/>
       <c r="BH24" s="52"/>
     </row>
-    <row r="25" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B25" s="63" t="s">
-        <v>141</v>
+    <row r="25" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="55" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="77" t="s">
+        <v>146</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -2788,16 +3139,18 @@
       <c r="BS25" s="17"/>
       <c r="BT25" s="14"/>
     </row>
-    <row r="26" spans="2:72" ht="9.75" customHeight="1" thickBot="1"/>
-    <row r="27" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B27" s="63" t="s">
-        <v>142</v>
+    <row r="26" spans="2:72" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="55" t="s">
+        <v>8</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="77" t="s">
+        <v>144</v>
+      </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
@@ -2863,10 +3216,10 @@
       <c r="BS27" s="14"/>
       <c r="BT27" s="14"/>
     </row>
-    <row r="28" spans="2:72" ht="9.75" customHeight="1" thickBot="1"/>
-    <row r="29" spans="2:72" ht="17.25" thickBot="1">
-      <c r="B29" s="63" t="s">
-        <v>143</v>
+    <row r="28" spans="2:72" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:72" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2941,10 +3294,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AI21:AP21"/>
+    <mergeCell ref="AR21:AZ21"/>
     <mergeCell ref="AI22:AZ22"/>
-    <mergeCell ref="AI21:AP21"/>
     <mergeCell ref="AI23:BF23"/>
-    <mergeCell ref="AR21:AZ21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2953,6 +3306,2235 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4FF9E5-711D-4DBE-A666-B134409C182B}">
+  <dimension ref="B3:CB32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" style="55"/>
+    <col min="3" max="3" width="1.875" customWidth="1"/>
+    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="5" max="6" width="1.875" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="8" max="8" width="3.375" customWidth="1"/>
+    <col min="9" max="12" width="1.875" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="15" width="2.125" customWidth="1"/>
+    <col min="16" max="17" width="2" customWidth="1"/>
+    <col min="18" max="20" width="1.875" customWidth="1"/>
+    <col min="21" max="21" width="2.125" customWidth="1"/>
+    <col min="22" max="22" width="4.5" customWidth="1"/>
+    <col min="23" max="27" width="1.875" customWidth="1"/>
+    <col min="28" max="28" width="3.5" customWidth="1"/>
+    <col min="29" max="31" width="1.875" customWidth="1"/>
+    <col min="32" max="34" width="2" customWidth="1"/>
+    <col min="35" max="35" width="2.625" customWidth="1"/>
+    <col min="36" max="41" width="2" customWidth="1"/>
+    <col min="42" max="42" width="4.125" customWidth="1"/>
+    <col min="43" max="47" width="2" customWidth="1"/>
+    <col min="48" max="48" width="3.25" customWidth="1"/>
+    <col min="49" max="58" width="2" customWidth="1"/>
+    <col min="59" max="59" width="3.125" customWidth="1"/>
+    <col min="60" max="62" width="2" customWidth="1"/>
+    <col min="63" max="63" width="3.5" customWidth="1"/>
+    <col min="64" max="64" width="2.875" customWidth="1"/>
+    <col min="65" max="80" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:80" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="D3" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="H3" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="N3" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="W3" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AC3" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AQ3" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AW3" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="79"/>
+      <c r="BH3" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI3" s="79"/>
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="79"/>
+      <c r="BM3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR3" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS3" s="79"/>
+      <c r="BT3" s="79"/>
+      <c r="BU3" s="79"/>
+      <c r="BV3" s="79"/>
+      <c r="BW3" s="79"/>
+      <c r="BX3" s="79"/>
+    </row>
+    <row r="4" spans="2:80" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ5" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="109"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="109"/>
+      <c r="BG5" s="109"/>
+      <c r="BH5" s="109"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="109"/>
+      <c r="BK5" s="109"/>
+      <c r="BL5" s="109"/>
+      <c r="BM5" s="110"/>
+      <c r="BN5" s="110"/>
+      <c r="BO5" s="110"/>
+      <c r="BP5" s="110"/>
+      <c r="BQ5" s="110"/>
+      <c r="BR5" s="111"/>
+      <c r="BS5" s="111"/>
+      <c r="BT5" s="112"/>
+      <c r="BU5" s="113"/>
+      <c r="BV5" s="113"/>
+      <c r="BW5" s="113"/>
+      <c r="BX5" s="113"/>
+      <c r="BY5" s="114"/>
+      <c r="BZ5" s="114"/>
+      <c r="CA5" s="114"/>
+      <c r="CB5" s="114"/>
+    </row>
+    <row r="6" spans="2:80" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="37"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="38"/>
+      <c r="BK6" s="38"/>
+      <c r="BL6" s="38"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="115"/>
+      <c r="BO6" s="115"/>
+      <c r="BP6" s="115"/>
+      <c r="BQ6" s="115"/>
+      <c r="BR6" s="60"/>
+      <c r="BS6" s="60"/>
+      <c r="BT6" s="60"/>
+      <c r="BU6" s="60"/>
+      <c r="BV6" s="60"/>
+      <c r="BW6" s="60"/>
+      <c r="BX6" s="60"/>
+      <c r="BY6" s="60"/>
+      <c r="BZ6" s="60"/>
+      <c r="CA6" s="60"/>
+      <c r="CB6" s="60"/>
+    </row>
+    <row r="7" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="116"/>
+      <c r="AP7" s="116"/>
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="109"/>
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="109"/>
+      <c r="AV7" s="109"/>
+      <c r="AW7" s="117"/>
+      <c r="AX7" s="118"/>
+      <c r="AY7" s="118"/>
+      <c r="AZ7" s="118"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="109"/>
+      <c r="BC7" s="109"/>
+      <c r="BD7" s="109"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="109"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
+      <c r="BI7" s="109"/>
+      <c r="BJ7" s="109"/>
+      <c r="BK7" s="109"/>
+      <c r="BL7" s="109"/>
+      <c r="BM7" s="110"/>
+      <c r="BN7" s="110"/>
+      <c r="BO7" s="110"/>
+      <c r="BP7" s="110"/>
+      <c r="BQ7" s="110"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="112"/>
+      <c r="BU7" s="113"/>
+      <c r="BV7" s="113"/>
+      <c r="BW7" s="113"/>
+      <c r="BX7" s="113"/>
+      <c r="BY7" s="114"/>
+      <c r="BZ7" s="114"/>
+      <c r="CA7" s="114"/>
+      <c r="CB7" s="114"/>
+    </row>
+    <row r="8" spans="2:80" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="37"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="115"/>
+      <c r="AK8" s="115"/>
+      <c r="AL8" s="115"/>
+      <c r="AM8" s="115"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="115"/>
+      <c r="AP8" s="115"/>
+      <c r="AQ8" s="115"/>
+      <c r="AR8" s="115"/>
+      <c r="AS8" s="115"/>
+      <c r="AT8" s="115"/>
+      <c r="AU8" s="115"/>
+      <c r="AV8" s="115"/>
+      <c r="AW8" s="115"/>
+      <c r="AX8" s="115"/>
+      <c r="AY8" s="115"/>
+      <c r="AZ8" s="115"/>
+      <c r="BA8" s="115"/>
+      <c r="BB8" s="115"/>
+      <c r="BC8" s="115"/>
+      <c r="BD8" s="115"/>
+      <c r="BE8" s="115"/>
+      <c r="BF8" s="115"/>
+      <c r="BG8" s="115"/>
+      <c r="BH8" s="115"/>
+      <c r="BI8" s="115"/>
+      <c r="BJ8" s="115"/>
+      <c r="BK8" s="115"/>
+      <c r="BL8" s="115"/>
+      <c r="BM8" s="115"/>
+      <c r="BN8" s="115"/>
+      <c r="BO8" s="115"/>
+      <c r="BP8" s="115"/>
+      <c r="BQ8" s="115"/>
+      <c r="BR8" s="60"/>
+      <c r="BS8" s="60"/>
+      <c r="BT8" s="60"/>
+      <c r="BU8" s="60"/>
+      <c r="BV8" s="60"/>
+      <c r="BW8" s="60"/>
+      <c r="BX8" s="60"/>
+      <c r="BY8" s="60"/>
+      <c r="BZ8" s="60"/>
+      <c r="CA8" s="60"/>
+      <c r="CB8" s="60"/>
+    </row>
+    <row r="9" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="109"/>
+      <c r="AR9" s="109"/>
+      <c r="AS9" s="109"/>
+      <c r="AT9" s="109"/>
+      <c r="AU9" s="109"/>
+      <c r="AV9" s="109"/>
+      <c r="AW9" s="109"/>
+      <c r="AX9" s="109"/>
+      <c r="AY9" s="109"/>
+      <c r="AZ9" s="109"/>
+      <c r="BA9" s="109"/>
+      <c r="BB9" s="109"/>
+      <c r="BC9" s="109"/>
+      <c r="BD9" s="109"/>
+      <c r="BE9" s="109"/>
+      <c r="BF9" s="109"/>
+      <c r="BG9" s="109"/>
+      <c r="BH9" s="117"/>
+      <c r="BI9" s="118"/>
+      <c r="BJ9" s="119"/>
+      <c r="BK9" s="120">
+        <v>200</v>
+      </c>
+      <c r="BL9" s="109"/>
+      <c r="BM9" s="110"/>
+      <c r="BN9" s="110"/>
+      <c r="BO9" s="110"/>
+      <c r="BP9" s="110"/>
+      <c r="BQ9" s="110"/>
+      <c r="BR9" s="113"/>
+      <c r="BS9" s="113"/>
+      <c r="BT9" s="113"/>
+      <c r="BU9" s="113"/>
+      <c r="BV9" s="113"/>
+      <c r="BW9" s="113"/>
+      <c r="BX9" s="113"/>
+      <c r="BY9" s="114"/>
+      <c r="BZ9" s="114"/>
+      <c r="CA9" s="114"/>
+      <c r="CB9" s="114"/>
+    </row>
+    <row r="10" spans="2:80" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="37"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="115"/>
+      <c r="AU10" s="115"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="115"/>
+      <c r="AX10" s="115"/>
+      <c r="AY10" s="115"/>
+      <c r="AZ10" s="115"/>
+      <c r="BA10" s="115"/>
+      <c r="BB10" s="115"/>
+      <c r="BC10" s="115"/>
+      <c r="BD10" s="115"/>
+      <c r="BE10" s="115"/>
+      <c r="BF10" s="115"/>
+      <c r="BG10" s="115"/>
+      <c r="BH10" s="115"/>
+      <c r="BI10" s="115"/>
+      <c r="BJ10" s="115"/>
+      <c r="BK10" s="115"/>
+      <c r="BL10" s="115"/>
+      <c r="BM10" s="115"/>
+      <c r="BN10" s="115"/>
+      <c r="BO10" s="115"/>
+      <c r="BP10" s="115"/>
+      <c r="BQ10" s="115"/>
+      <c r="BR10" s="60"/>
+      <c r="BS10" s="60"/>
+      <c r="BT10" s="60"/>
+      <c r="BU10" s="60"/>
+      <c r="BV10" s="60"/>
+      <c r="BW10" s="60"/>
+      <c r="BX10" s="60"/>
+      <c r="BY10" s="60"/>
+      <c r="BZ10" s="60"/>
+      <c r="CA10" s="60"/>
+      <c r="CB10" s="60"/>
+    </row>
+    <row r="11" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="109"/>
+      <c r="AR11" s="122"/>
+      <c r="AS11" s="109"/>
+      <c r="AT11" s="122"/>
+      <c r="AU11" s="109"/>
+      <c r="AV11" s="109"/>
+      <c r="AW11" s="109"/>
+      <c r="AX11" s="122"/>
+      <c r="AY11" s="109"/>
+      <c r="AZ11" s="122"/>
+      <c r="BA11" s="109"/>
+      <c r="BB11" s="109"/>
+      <c r="BC11" s="122"/>
+      <c r="BD11" s="109"/>
+      <c r="BE11" s="122"/>
+      <c r="BF11" s="109"/>
+      <c r="BG11" s="109"/>
+      <c r="BH11" s="109"/>
+      <c r="BI11" s="109"/>
+      <c r="BJ11" s="109"/>
+      <c r="BK11" s="109"/>
+      <c r="BL11" s="109"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="110"/>
+      <c r="BR11" s="113"/>
+      <c r="BS11" s="113"/>
+      <c r="BT11" s="112"/>
+      <c r="BU11" s="113"/>
+      <c r="BV11" s="113"/>
+      <c r="BW11" s="113"/>
+      <c r="BX11" s="113"/>
+      <c r="BY11" s="114"/>
+      <c r="BZ11" s="114"/>
+      <c r="CA11" s="114"/>
+      <c r="CB11" s="114"/>
+    </row>
+    <row r="12" spans="2:80" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="37"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="115"/>
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="115"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="115"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="115"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="115"/>
+      <c r="BE12" s="115"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="115"/>
+      <c r="BL12" s="115"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="115"/>
+      <c r="BO12" s="115"/>
+      <c r="BP12" s="115"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="60"/>
+      <c r="BS12" s="60"/>
+      <c r="BT12" s="60"/>
+      <c r="BU12" s="60"/>
+      <c r="BV12" s="60"/>
+      <c r="BW12" s="60"/>
+      <c r="BX12" s="60"/>
+      <c r="BY12" s="60"/>
+      <c r="BZ12" s="60"/>
+      <c r="CA12" s="60"/>
+      <c r="CB12" s="60"/>
+    </row>
+    <row r="13" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="116"/>
+      <c r="AJ13" s="116"/>
+      <c r="AK13" s="116"/>
+      <c r="AL13" s="116"/>
+      <c r="AM13" s="116"/>
+      <c r="AN13" s="116"/>
+      <c r="AO13" s="116"/>
+      <c r="AP13" s="116"/>
+      <c r="AQ13" s="117"/>
+      <c r="AR13" s="118"/>
+      <c r="AS13" s="118"/>
+      <c r="AT13" s="118"/>
+      <c r="AU13" s="118"/>
+      <c r="AV13" s="118"/>
+      <c r="AW13" s="118"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="118"/>
+      <c r="AZ13" s="118"/>
+      <c r="BA13" s="118"/>
+      <c r="BB13" s="118"/>
+      <c r="BC13" s="118"/>
+      <c r="BD13" s="118"/>
+      <c r="BE13" s="118"/>
+      <c r="BF13" s="118"/>
+      <c r="BG13" s="118"/>
+      <c r="BH13" s="118"/>
+      <c r="BI13" s="118"/>
+      <c r="BJ13" s="118"/>
+      <c r="BK13" s="118"/>
+      <c r="BL13" s="118"/>
+      <c r="BM13" s="127"/>
+      <c r="BN13" s="127"/>
+      <c r="BO13" s="127"/>
+      <c r="BP13" s="127"/>
+      <c r="BQ13" s="127"/>
+      <c r="BR13" s="113"/>
+      <c r="BS13" s="113"/>
+      <c r="BT13" s="113"/>
+      <c r="BU13" s="113"/>
+      <c r="BV13" s="113"/>
+      <c r="BW13" s="113"/>
+      <c r="BX13" s="113"/>
+      <c r="BY13" s="114"/>
+      <c r="BZ13" s="114"/>
+      <c r="CA13" s="114"/>
+      <c r="CB13" s="114"/>
+    </row>
+    <row r="14" spans="2:80" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="37"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+      <c r="BF14" s="115"/>
+      <c r="BG14" s="115"/>
+      <c r="BH14" s="115"/>
+      <c r="BI14" s="115"/>
+      <c r="BJ14" s="115"/>
+      <c r="BK14" s="115"/>
+      <c r="BL14" s="115"/>
+      <c r="BM14" s="115"/>
+      <c r="BN14" s="115"/>
+      <c r="BO14" s="115"/>
+      <c r="BP14" s="115"/>
+      <c r="BQ14" s="115"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+    </row>
+    <row r="15" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="130"/>
+      <c r="AP15" s="130"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="118"/>
+      <c r="BA15" s="118"/>
+      <c r="BB15" s="118"/>
+      <c r="BC15" s="118"/>
+      <c r="BD15" s="118"/>
+      <c r="BE15" s="118"/>
+      <c r="BF15" s="118"/>
+      <c r="BG15" s="118"/>
+      <c r="BH15" s="118"/>
+      <c r="BI15" s="118"/>
+      <c r="BJ15" s="118"/>
+      <c r="BK15" s="118"/>
+      <c r="BL15" s="118"/>
+      <c r="BM15" s="127"/>
+      <c r="BN15" s="127"/>
+      <c r="BO15" s="127"/>
+      <c r="BP15" s="127"/>
+      <c r="BQ15" s="127"/>
+      <c r="BR15" s="124"/>
+      <c r="BS15" s="131"/>
+      <c r="BT15" s="105"/>
+      <c r="BU15" s="105"/>
+      <c r="BV15" s="105"/>
+      <c r="BW15" s="105"/>
+      <c r="BX15" s="105"/>
+      <c r="BY15" s="114"/>
+      <c r="BZ15" s="114"/>
+      <c r="CA15" s="114"/>
+      <c r="CB15" s="114"/>
+    </row>
+    <row r="16" spans="2:80" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="37"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="115"/>
+      <c r="AD16" s="115"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="115"/>
+      <c r="AK16" s="115"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
+      <c r="AX16" s="115"/>
+      <c r="AY16" s="115"/>
+      <c r="AZ16" s="115"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="115"/>
+      <c r="BC16" s="115"/>
+      <c r="BD16" s="115"/>
+      <c r="BE16" s="115"/>
+      <c r="BF16" s="115"/>
+      <c r="BG16" s="115"/>
+      <c r="BH16" s="115"/>
+      <c r="BI16" s="115"/>
+      <c r="BJ16" s="115"/>
+      <c r="BK16" s="115"/>
+      <c r="BL16" s="115"/>
+      <c r="BM16" s="115"/>
+      <c r="BN16" s="115"/>
+      <c r="BO16" s="115"/>
+      <c r="BP16" s="115"/>
+      <c r="BQ16" s="115"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+    </row>
+    <row r="17" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="129"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="130"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="130"/>
+      <c r="AP17" s="130"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="118"/>
+      <c r="BA17" s="118"/>
+      <c r="BB17" s="118"/>
+      <c r="BC17" s="118"/>
+      <c r="BD17" s="118"/>
+      <c r="BE17" s="118"/>
+      <c r="BF17" s="118"/>
+      <c r="BG17" s="118"/>
+      <c r="BH17" s="118"/>
+      <c r="BI17" s="118"/>
+      <c r="BJ17" s="118"/>
+      <c r="BK17" s="118"/>
+      <c r="BL17" s="118"/>
+      <c r="BM17" s="127"/>
+      <c r="BN17" s="127"/>
+      <c r="BO17" s="127"/>
+      <c r="BP17" s="127"/>
+      <c r="BQ17" s="127"/>
+      <c r="BR17" s="113"/>
+      <c r="BS17" s="113"/>
+      <c r="BT17" s="113"/>
+      <c r="BU17" s="113"/>
+      <c r="BV17" s="113"/>
+      <c r="BW17" s="113"/>
+      <c r="BX17" s="113"/>
+      <c r="BY17" s="114"/>
+      <c r="BZ17" s="114"/>
+      <c r="CA17" s="114"/>
+      <c r="CB17" s="114"/>
+    </row>
+    <row r="18" spans="2:80" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="37"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="115"/>
+      <c r="AD18" s="115"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="115"/>
+      <c r="AK18" s="115"/>
+      <c r="AL18" s="115"/>
+      <c r="AM18" s="115"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="115"/>
+      <c r="AP18" s="115"/>
+      <c r="AQ18" s="115"/>
+      <c r="AR18" s="115"/>
+      <c r="AS18" s="115"/>
+      <c r="AT18" s="115"/>
+      <c r="AU18" s="115"/>
+      <c r="AV18" s="115"/>
+      <c r="AW18" s="115"/>
+      <c r="AX18" s="115"/>
+      <c r="AY18" s="115"/>
+      <c r="AZ18" s="115"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="115"/>
+      <c r="BC18" s="115"/>
+      <c r="BD18" s="115"/>
+      <c r="BE18" s="115"/>
+      <c r="BF18" s="115"/>
+      <c r="BG18" s="115"/>
+      <c r="BH18" s="115"/>
+      <c r="BI18" s="115"/>
+      <c r="BJ18" s="115"/>
+      <c r="BK18" s="115"/>
+      <c r="BL18" s="115"/>
+      <c r="BM18" s="115"/>
+      <c r="BN18" s="115"/>
+      <c r="BO18" s="115"/>
+      <c r="BP18" s="115"/>
+      <c r="BQ18" s="115"/>
+      <c r="BR18" s="60"/>
+      <c r="BS18" s="60"/>
+      <c r="BT18" s="60"/>
+      <c r="BU18" s="60"/>
+      <c r="BV18" s="60"/>
+      <c r="BW18" s="60"/>
+      <c r="BX18" s="60"/>
+      <c r="BY18" s="60"/>
+      <c r="BZ18" s="60"/>
+      <c r="CA18" s="60"/>
+      <c r="CB18" s="60"/>
+    </row>
+    <row r="19" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="116"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="116"/>
+      <c r="AO19" s="116"/>
+      <c r="AP19" s="116"/>
+      <c r="AQ19" s="109"/>
+      <c r="AR19" s="109"/>
+      <c r="AS19" s="109"/>
+      <c r="AT19" s="109"/>
+      <c r="AU19" s="109"/>
+      <c r="AV19" s="109"/>
+      <c r="AW19" s="109"/>
+      <c r="AX19" s="109"/>
+      <c r="AY19" s="109"/>
+      <c r="AZ19" s="109"/>
+      <c r="BA19" s="109"/>
+      <c r="BB19" s="109"/>
+      <c r="BC19" s="109"/>
+      <c r="BD19" s="109"/>
+      <c r="BE19" s="109"/>
+      <c r="BF19" s="109"/>
+      <c r="BG19" s="109"/>
+      <c r="BH19" s="109"/>
+      <c r="BI19" s="122">
+        <v>5</v>
+      </c>
+      <c r="BJ19" s="109"/>
+      <c r="BK19" s="109"/>
+      <c r="BL19" s="109"/>
+      <c r="BM19" s="138"/>
+      <c r="BN19" s="110"/>
+      <c r="BO19" s="110"/>
+      <c r="BP19" s="110"/>
+      <c r="BQ19" s="110"/>
+      <c r="BR19" s="113"/>
+      <c r="BS19" s="113"/>
+      <c r="BT19" s="113"/>
+      <c r="BU19" s="112"/>
+      <c r="BV19" s="113"/>
+      <c r="BW19" s="113"/>
+      <c r="BX19" s="113"/>
+      <c r="BY19" s="114"/>
+      <c r="BZ19" s="114"/>
+      <c r="CA19" s="114"/>
+      <c r="CB19" s="114"/>
+    </row>
+    <row r="21" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="W21" s="87"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="85"/>
+      <c r="AP21" s="89"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="90"/>
+      <c r="BA21" s="90"/>
+      <c r="BB21" s="90"/>
+      <c r="BC21" s="90"/>
+      <c r="BD21" s="90"/>
+      <c r="BE21" s="90"/>
+      <c r="BF21" s="90"/>
+      <c r="BG21" s="90"/>
+      <c r="BH21" s="90"/>
+      <c r="BI21" s="90"/>
+      <c r="BJ21" s="90"/>
+      <c r="BK21" s="90"/>
+      <c r="BL21" s="91"/>
+      <c r="BM21" s="92"/>
+      <c r="BN21" s="93"/>
+      <c r="BO21" s="33"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="94"/>
+    </row>
+    <row r="22" spans="2:80" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="59"/>
+      <c r="W22" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="65"/>
+      <c r="BJ22" s="65"/>
+      <c r="BK22" s="65"/>
+      <c r="BL22" s="66"/>
+      <c r="BM22" s="87"/>
+      <c r="BN22" s="33"/>
+      <c r="BO22" s="33"/>
+      <c r="BP22" s="33"/>
+      <c r="BQ22" s="94"/>
+    </row>
+    <row r="23" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="W23" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="84"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
+      <c r="BC23" s="84"/>
+      <c r="BD23" s="84"/>
+      <c r="BE23" s="84"/>
+      <c r="BF23" s="84"/>
+      <c r="BG23" s="84"/>
+      <c r="BH23" s="84"/>
+      <c r="BI23" s="84"/>
+      <c r="BJ23" s="84"/>
+      <c r="BK23" s="84"/>
+      <c r="BL23" s="84"/>
+      <c r="BM23" s="84"/>
+      <c r="BN23" s="84"/>
+      <c r="BO23" s="84"/>
+      <c r="BP23" s="84"/>
+      <c r="BQ23" s="85"/>
+    </row>
+    <row r="24" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="W24" s="52"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="60"/>
+      <c r="AS24" s="60"/>
+      <c r="AT24" s="60"/>
+      <c r="AU24" s="60"/>
+      <c r="AV24" s="60"/>
+      <c r="AW24" s="60"/>
+      <c r="AX24" s="60"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="60"/>
+      <c r="BA24" s="60"/>
+      <c r="BB24" s="60"/>
+      <c r="BC24" s="60"/>
+      <c r="BD24" s="60"/>
+      <c r="BE24" s="60"/>
+      <c r="BF24" s="60"/>
+      <c r="BG24" s="60"/>
+      <c r="BH24" s="60"/>
+      <c r="BI24" s="60"/>
+      <c r="BJ24" s="60"/>
+      <c r="BK24" s="60"/>
+      <c r="BL24" s="60"/>
+      <c r="BM24" s="60"/>
+      <c r="BN24" s="60"/>
+      <c r="BO24" s="60"/>
+      <c r="BP24" s="60"/>
+      <c r="BQ24" s="60"/>
+    </row>
+    <row r="25" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W25" s="52"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="60"/>
+      <c r="AR25" s="60"/>
+      <c r="AS25" s="60"/>
+      <c r="AT25" s="60"/>
+      <c r="AU25" s="60"/>
+      <c r="AV25" s="60"/>
+      <c r="AW25" s="60"/>
+      <c r="AX25" s="60"/>
+      <c r="AY25" s="60"/>
+      <c r="AZ25" s="60"/>
+      <c r="BA25" s="60"/>
+      <c r="BB25" s="60"/>
+      <c r="BC25" s="60"/>
+      <c r="BD25" s="60"/>
+      <c r="BE25" s="60"/>
+      <c r="BF25" s="60"/>
+      <c r="BG25" s="60"/>
+      <c r="BH25" s="60"/>
+      <c r="BI25" s="60"/>
+      <c r="BJ25" s="60"/>
+      <c r="BK25" s="60"/>
+      <c r="BL25" s="60"/>
+      <c r="BM25" s="60"/>
+      <c r="BN25" s="60"/>
+      <c r="BO25" s="60"/>
+      <c r="BP25" s="60"/>
+      <c r="BQ25" s="60"/>
+    </row>
+    <row r="26" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="96">
+        <v>1</v>
+      </c>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="97"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="97"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="97"/>
+      <c r="AL26" s="97"/>
+      <c r="AM26" s="97"/>
+      <c r="AN26" s="97"/>
+      <c r="AO26" s="97"/>
+      <c r="AP26" s="97"/>
+      <c r="AQ26" s="97"/>
+      <c r="AR26" s="97"/>
+      <c r="AS26" s="97"/>
+      <c r="AT26" s="97"/>
+      <c r="AU26" s="97"/>
+      <c r="AV26" s="97"/>
+      <c r="AW26" s="97"/>
+      <c r="AX26" s="97"/>
+      <c r="AY26" s="97"/>
+      <c r="AZ26" s="97"/>
+      <c r="BA26" s="97"/>
+      <c r="BB26" s="97"/>
+      <c r="BC26" s="97"/>
+      <c r="BD26" s="97"/>
+      <c r="BE26" s="97"/>
+      <c r="BF26" s="97"/>
+      <c r="BG26" s="97"/>
+      <c r="BH26" s="97"/>
+      <c r="BI26" s="97"/>
+      <c r="BJ26" s="97"/>
+      <c r="BK26" s="97"/>
+      <c r="BL26" s="97"/>
+      <c r="BM26" s="97"/>
+      <c r="BN26" s="97"/>
+      <c r="BO26" s="97"/>
+      <c r="BP26" s="97"/>
+      <c r="BQ26" s="97"/>
+      <c r="BR26" s="97"/>
+      <c r="BS26" s="97"/>
+      <c r="BT26" s="97"/>
+      <c r="BU26" s="97"/>
+      <c r="BV26" s="97"/>
+      <c r="BW26" s="97"/>
+      <c r="BX26" s="97"/>
+      <c r="BY26" s="97"/>
+      <c r="BZ26" s="97"/>
+      <c r="CA26" s="98"/>
+      <c r="CB26" s="95"/>
+    </row>
+    <row r="27" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="99"/>
+      <c r="AN27" s="99"/>
+      <c r="AO27" s="99"/>
+      <c r="AP27" s="99"/>
+      <c r="AQ27" s="99"/>
+      <c r="AR27" s="99"/>
+      <c r="AS27" s="99"/>
+      <c r="AT27" s="99"/>
+      <c r="AU27" s="99"/>
+      <c r="AV27" s="99"/>
+      <c r="AW27" s="99"/>
+      <c r="AX27" s="99"/>
+      <c r="AY27" s="99"/>
+      <c r="AZ27" s="99"/>
+      <c r="BA27" s="99"/>
+      <c r="BB27" s="99"/>
+      <c r="BC27" s="99"/>
+      <c r="BD27" s="99"/>
+      <c r="BE27" s="99"/>
+      <c r="BF27" s="99"/>
+      <c r="BG27" s="99"/>
+      <c r="BH27" s="99"/>
+      <c r="BI27" s="99"/>
+      <c r="BJ27" s="99"/>
+      <c r="BK27" s="99"/>
+      <c r="BL27" s="99"/>
+      <c r="BM27" s="99"/>
+      <c r="BN27" s="99"/>
+      <c r="BO27" s="99"/>
+      <c r="BP27" s="99"/>
+      <c r="BQ27" s="99"/>
+      <c r="BR27" s="99"/>
+      <c r="BS27" s="99"/>
+      <c r="BT27" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="BU27" s="99"/>
+      <c r="BV27" s="99"/>
+      <c r="BW27" s="99"/>
+      <c r="BX27" s="99"/>
+      <c r="BY27" s="99"/>
+      <c r="BZ27" s="99"/>
+      <c r="CA27" s="99"/>
+      <c r="CB27" s="99"/>
+    </row>
+    <row r="28" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="99"/>
+      <c r="AN28" s="99"/>
+      <c r="AO28" s="99"/>
+      <c r="AP28" s="99"/>
+      <c r="AQ28" s="99"/>
+      <c r="AR28" s="99"/>
+      <c r="AS28" s="99"/>
+      <c r="AT28" s="99"/>
+      <c r="AU28" s="99"/>
+      <c r="AV28" s="99"/>
+      <c r="AW28" s="99"/>
+      <c r="AX28" s="99"/>
+      <c r="AY28" s="99"/>
+      <c r="AZ28" s="99"/>
+      <c r="BA28" s="99"/>
+      <c r="BB28" s="99"/>
+      <c r="BC28" s="99"/>
+      <c r="BD28" s="99"/>
+      <c r="BE28" s="99"/>
+      <c r="BF28" s="99"/>
+      <c r="BG28" s="99"/>
+      <c r="BH28" s="99"/>
+      <c r="BI28" s="99"/>
+      <c r="BJ28" s="99"/>
+      <c r="BK28" s="99"/>
+      <c r="BL28" s="99"/>
+      <c r="BM28" s="99"/>
+      <c r="BN28" s="99"/>
+      <c r="BO28" s="99"/>
+      <c r="BP28" s="99"/>
+      <c r="BQ28" s="99"/>
+      <c r="BR28" s="99"/>
+      <c r="BS28" s="99"/>
+      <c r="BT28" s="99"/>
+      <c r="BU28" s="99"/>
+      <c r="BV28" s="99"/>
+      <c r="BW28" s="99"/>
+      <c r="BX28" s="99"/>
+      <c r="BY28" s="99"/>
+      <c r="BZ28" s="99"/>
+      <c r="CA28" s="99"/>
+      <c r="CB28" s="99"/>
+    </row>
+    <row r="29" spans="2:80" x14ac:dyDescent="0.3">
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="102"/>
+      <c r="AG29" s="102"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="102"/>
+      <c r="AN29" s="102"/>
+      <c r="AO29" s="102"/>
+      <c r="AP29" s="102"/>
+      <c r="AQ29" s="102"/>
+      <c r="AR29" s="102"/>
+      <c r="AS29" s="102"/>
+      <c r="AT29" s="102"/>
+      <c r="AU29" s="102"/>
+      <c r="AV29" s="102"/>
+      <c r="AW29" s="102"/>
+      <c r="AX29" s="102"/>
+      <c r="AY29" s="102"/>
+      <c r="AZ29" s="102"/>
+      <c r="BA29" s="102"/>
+      <c r="BB29" s="102"/>
+      <c r="BC29" s="102"/>
+      <c r="BD29" s="102"/>
+      <c r="BE29" s="102"/>
+      <c r="BF29" s="102"/>
+      <c r="BG29" s="102"/>
+      <c r="BH29" s="102"/>
+      <c r="BI29" s="102"/>
+      <c r="BJ29" s="102"/>
+      <c r="BK29" s="102"/>
+      <c r="BL29" s="102"/>
+      <c r="BM29" s="102"/>
+      <c r="BN29" s="102"/>
+      <c r="BO29" s="102"/>
+      <c r="BP29" s="102"/>
+      <c r="BQ29" s="102"/>
+      <c r="BR29" s="102"/>
+      <c r="BS29" s="102"/>
+      <c r="BT29" s="102"/>
+      <c r="BU29" s="102"/>
+      <c r="BV29" s="102"/>
+      <c r="BW29" s="102"/>
+      <c r="BX29" s="102"/>
+      <c r="BY29" s="102"/>
+      <c r="BZ29" s="102"/>
+      <c r="CA29" s="102"/>
+      <c r="CB29" s="102"/>
+    </row>
+    <row r="30" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="95"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="95"/>
+      <c r="AM30" s="95"/>
+      <c r="AN30" s="95"/>
+      <c r="AO30" s="95"/>
+      <c r="AP30" s="95"/>
+      <c r="AQ30" s="95"/>
+      <c r="AR30" s="95"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="95"/>
+      <c r="AZ30" s="95"/>
+      <c r="BA30" s="95"/>
+      <c r="BB30" s="95"/>
+      <c r="BC30" s="95"/>
+      <c r="BD30" s="95"/>
+      <c r="BE30" s="95"/>
+      <c r="BF30" s="95"/>
+      <c r="BG30" s="95"/>
+      <c r="BH30" s="95"/>
+      <c r="BI30" s="95"/>
+      <c r="BJ30" s="95"/>
+      <c r="BK30" s="95"/>
+      <c r="BL30" s="95"/>
+      <c r="BM30" s="95"/>
+      <c r="BN30" s="95"/>
+      <c r="BO30" s="95"/>
+      <c r="BP30" s="95"/>
+      <c r="BQ30" s="95"/>
+      <c r="BR30" s="95"/>
+      <c r="BS30" s="95"/>
+      <c r="BT30" s="95"/>
+      <c r="BU30" s="95"/>
+      <c r="BV30" s="95"/>
+      <c r="BW30" s="95"/>
+      <c r="BX30" s="95"/>
+      <c r="BY30" s="95"/>
+      <c r="BZ30" s="95"/>
+      <c r="CA30" s="95"/>
+      <c r="CB30" s="95"/>
+    </row>
+    <row r="31" spans="2:80" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="102"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="102"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="102"/>
+      <c r="AN31" s="102"/>
+      <c r="AO31" s="102"/>
+      <c r="AP31" s="102"/>
+      <c r="AQ31" s="102"/>
+      <c r="AR31" s="102"/>
+      <c r="AS31" s="102"/>
+      <c r="AT31" s="102"/>
+      <c r="AU31" s="102"/>
+      <c r="AV31" s="102"/>
+      <c r="AW31" s="102"/>
+      <c r="AX31" s="102"/>
+      <c r="AY31" s="102"/>
+      <c r="AZ31" s="102"/>
+      <c r="BA31" s="102"/>
+      <c r="BB31" s="102"/>
+      <c r="BC31" s="102"/>
+      <c r="BD31" s="102"/>
+      <c r="BE31" s="102"/>
+      <c r="BF31" s="102"/>
+      <c r="BG31" s="102"/>
+      <c r="BH31" s="102"/>
+      <c r="BI31" s="102"/>
+      <c r="BJ31" s="102"/>
+      <c r="BK31" s="102"/>
+      <c r="BL31" s="102"/>
+      <c r="BM31" s="102"/>
+      <c r="BN31" s="102"/>
+      <c r="BO31" s="102"/>
+      <c r="BP31" s="102"/>
+      <c r="BQ31" s="102"/>
+      <c r="BR31" s="102"/>
+      <c r="BS31" s="102"/>
+      <c r="BT31" s="102"/>
+      <c r="BU31" s="102"/>
+      <c r="BV31" s="102"/>
+      <c r="BW31" s="102"/>
+      <c r="BX31" s="102"/>
+      <c r="BY31" s="102"/>
+      <c r="BZ31" s="102"/>
+      <c r="CA31" s="102"/>
+      <c r="CB31" s="102"/>
+    </row>
+    <row r="32" spans="2:80" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="96">
+        <v>6</v>
+      </c>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97">
+        <v>1</v>
+      </c>
+      <c r="O32" s="97">
+        <v>1</v>
+      </c>
+      <c r="P32" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="97">
+        <v>1</v>
+      </c>
+      <c r="R32" s="97">
+        <v>1</v>
+      </c>
+      <c r="S32" s="97">
+        <v>1</v>
+      </c>
+      <c r="T32" s="97">
+        <v>1</v>
+      </c>
+      <c r="U32" s="97">
+        <v>1</v>
+      </c>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="97"/>
+      <c r="AB32" s="97"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="97"/>
+      <c r="AH32" s="97"/>
+      <c r="AI32" s="97"/>
+      <c r="AJ32" s="97"/>
+      <c r="AK32" s="97"/>
+      <c r="AL32" s="97"/>
+      <c r="AM32" s="97"/>
+      <c r="AN32" s="97"/>
+      <c r="AO32" s="97"/>
+      <c r="AP32" s="97"/>
+      <c r="AQ32" s="97"/>
+      <c r="AR32" s="97"/>
+      <c r="AS32" s="97"/>
+      <c r="AT32" s="97"/>
+      <c r="AU32" s="97"/>
+      <c r="AV32" s="97"/>
+      <c r="AW32" s="97"/>
+      <c r="AX32" s="97"/>
+      <c r="AY32" s="97"/>
+      <c r="AZ32" s="97"/>
+      <c r="BA32" s="97"/>
+      <c r="BB32" s="97"/>
+      <c r="BC32" s="97"/>
+      <c r="BD32" s="97"/>
+      <c r="BE32" s="97"/>
+      <c r="BF32" s="97"/>
+      <c r="BG32" s="97"/>
+      <c r="BH32" s="97"/>
+      <c r="BI32" s="97"/>
+      <c r="BJ32" s="97"/>
+      <c r="BK32" s="97"/>
+      <c r="BL32" s="97"/>
+      <c r="BM32" s="97"/>
+      <c r="BN32" s="97"/>
+      <c r="BO32" s="97"/>
+      <c r="BP32" s="97"/>
+      <c r="BQ32" s="97"/>
+      <c r="BR32" s="97"/>
+      <c r="BS32" s="97"/>
+      <c r="BT32" s="98"/>
+      <c r="BU32" s="95"/>
+      <c r="BV32" s="95"/>
+      <c r="BW32" s="95"/>
+      <c r="BX32" s="95"/>
+      <c r="BY32" s="95"/>
+      <c r="BZ32" s="95"/>
+      <c r="CA32" s="95"/>
+      <c r="CB32" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="BH3:BK3"/>
+    <mergeCell ref="AW3:BF3"/>
+    <mergeCell ref="AC3:AO3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="AJ21:AO21"/>
+    <mergeCell ref="W22:BL22"/>
+    <mergeCell ref="W23:BQ23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F29932-40D1-440F-BC69-A370D4ACE798}">
   <dimension ref="B3:BO18"/>
   <sheetViews>
@@ -2960,10 +5542,10 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
@@ -2987,7 +5569,7 @@
     <col min="55" max="67" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:67">
+    <row r="3" spans="2:67" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>116</v>
       </c>
@@ -3013,7 +5595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:67">
+    <row r="4" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -3038,7 +5620,7 @@
       <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
     </row>
-    <row r="5" spans="2:67">
+    <row r="5" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +5650,7 @@
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
     </row>
-    <row r="6" spans="2:67">
+    <row r="6" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +5697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:67">
+    <row r="7" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -3200,7 +5782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:67">
+    <row r="8" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +5815,7 @@
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
     </row>
-    <row r="9" spans="2:67">
+    <row r="9" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -3259,7 +5841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:67">
+    <row r="10" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +5879,7 @@
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
     </row>
-    <row r="11" spans="2:67">
+    <row r="11" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -3358,75 +5940,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:67">
-      <c r="U12" s="61">
+    <row r="12" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="U12" s="74">
         <v>200</v>
       </c>
-      <c r="V12" s="60"/>
-      <c r="W12" s="62"/>
-    </row>
-    <row r="13" spans="2:67">
-      <c r="R13" s="61" t="s">
+      <c r="V12" s="69"/>
+      <c r="W12" s="75"/>
+    </row>
+    <row r="13" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="R13" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="60"/>
-      <c r="AP13" s="60"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="60"/>
-      <c r="AT13" s="60"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="62"/>
-    </row>
-    <row r="14" spans="2:67">
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="75"/>
+    </row>
+    <row r="14" spans="2:67" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="2:67">
+    <row r="15" spans="2:67" x14ac:dyDescent="0.3">
       <c r="D15" s="5"/>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:67">
+    <row r="16" spans="2:67" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="7"/>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18">
         <v>2</v>
@@ -3443,7 +6025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BAB292-24C5-4DBE-8CCB-FBD5A18B0E90}">
   <dimension ref="B3:H19"/>
   <sheetViews>
@@ -3451,14 +6033,14 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -3472,7 +6054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -3495,7 +6077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3518,7 +6100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3541,7 +6123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -3564,7 +6146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -3587,7 +6169,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -3610,7 +6192,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -3633,7 +6215,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -3656,7 +6238,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -3679,7 +6261,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
@@ -3702,7 +6284,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -3725,7 +6307,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
@@ -3748,7 +6330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
@@ -3771,7 +6353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
@@ -3794,7 +6376,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
@@ -3817,7 +6399,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
